--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H2">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>8.460613924120887</v>
+        <v>2.741435655420444</v>
       </c>
       <c r="R2">
-        <v>76.14552531708799</v>
+        <v>24.672920898784</v>
       </c>
       <c r="S2">
-        <v>0.08091819401763561</v>
+        <v>0.02168618108971882</v>
       </c>
       <c r="T2">
-        <v>0.08091819401763561</v>
+        <v>0.02168618108971882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>2.599067288525111</v>
+        <v>0.9470256343528889</v>
       </c>
       <c r="R3">
-        <v>23.391605596726</v>
+        <v>8.523230709176</v>
       </c>
       <c r="S3">
-        <v>0.02485775063180392</v>
+        <v>0.007491465051377557</v>
       </c>
       <c r="T3">
-        <v>0.02485775063180392</v>
+        <v>0.007491465051377559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>1.494537048436</v>
+        <v>0.3103530347644445</v>
       </c>
       <c r="R4">
-        <v>13.450833435924</v>
+        <v>2.79317731288</v>
       </c>
       <c r="S4">
-        <v>0.01429390821239425</v>
+        <v>0.002455053832957217</v>
       </c>
       <c r="T4">
-        <v>0.01429390821239425</v>
+        <v>0.002455053832957218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>39.71120315650666</v>
+        <v>35.31384554328666</v>
       </c>
       <c r="R5">
-        <v>357.40082840856</v>
+        <v>317.82460988958</v>
       </c>
       <c r="S5">
-        <v>0.3798020888922477</v>
+        <v>0.2793508751197091</v>
       </c>
       <c r="T5">
-        <v>0.3798020888922476</v>
+        <v>0.2793508751197092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
         <v>12.19912526888833</v>
@@ -818,10 +818,10 @@
         <v>109.792127419995</v>
       </c>
       <c r="S6">
-        <v>0.1166737064480716</v>
+        <v>0.0965014222362639</v>
       </c>
       <c r="T6">
-        <v>0.1166737064480716</v>
+        <v>0.09650142223626393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>7.014841344569999</v>
+        <v>3.997817388816666</v>
       </c>
       <c r="R7">
-        <v>63.13357210113</v>
+        <v>35.98035649935</v>
       </c>
       <c r="S7">
-        <v>0.06709067427182329</v>
+        <v>0.03162481369427166</v>
       </c>
       <c r="T7">
-        <v>0.06709067427182328</v>
+        <v>0.03162481369427167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N8">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P8">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q8">
-        <v>22.29228129597866</v>
+        <v>48.60933034785955</v>
       </c>
       <c r="R8">
-        <v>200.630531663808</v>
+        <v>437.4839731307359</v>
       </c>
       <c r="S8">
-        <v>0.2132057034136731</v>
+        <v>0.3845250711937558</v>
       </c>
       <c r="T8">
-        <v>0.2132057034136731</v>
+        <v>0.3845250711937559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.889343</v>
       </c>
       <c r="O9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P9">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q9">
-        <v>6.848101050657333</v>
+        <v>16.79203442806711</v>
       </c>
       <c r="R9">
-        <v>61.63290945591601</v>
+        <v>151.128309852604</v>
       </c>
       <c r="S9">
-        <v>0.06549595270972522</v>
+        <v>0.1328337211751947</v>
       </c>
       <c r="T9">
-        <v>0.06549595270972521</v>
+        <v>0.1328337211751947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N10">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P10">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q10">
-        <v>3.937851388776</v>
+        <v>5.502975479835556</v>
       </c>
       <c r="R10">
-        <v>35.440662498984</v>
+        <v>49.52677931852001</v>
       </c>
       <c r="S10">
-        <v>0.03766202140262551</v>
+        <v>0.04353139660675116</v>
       </c>
       <c r="T10">
-        <v>0.0376620214026255</v>
+        <v>0.04353139660675117</v>
       </c>
     </row>
   </sheetData>
